--- a/trunk/Lab5/Envelope.xlsx
+++ b/trunk/Lab5/Envelope.xlsx
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -278,1026 +274,6 @@
                 <c:pt idx="60">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>319</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>381</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>383</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>400</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1311,1203 +287,183 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>99</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>98</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>96</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>95</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>94</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>93</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>92</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>91</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>90</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>89</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>89</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>89</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>89</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>88</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>88</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>88</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>88</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>87</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>87</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>87</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>87</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>86</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>86</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>86</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>85</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>85</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>85</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>84</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>84</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>84</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>84</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>83</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>83</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>83</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>83</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>82</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>82</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>82</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>82</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>81</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>81</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="400">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2523,11 +479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="158339008"/>
-        <c:axId val="144112384"/>
+        <c:axId val="48513024"/>
+        <c:axId val="48513600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="158339008"/>
+        <c:axId val="48513024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2537,12 +493,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144112384"/>
+        <c:crossAx val="48513600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144112384"/>
+        <c:axId val="48513600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,7 +509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158339008"/>
+        <c:crossAx val="48513024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2899,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,11 +866,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>441*A1</f>
+        <f>1470*A1</f>
         <v>0</v>
       </c>
       <c r="C1">
-        <f>ROUND(IF(B1&lt;2205,B1/22.05,IF(B1&lt;6615,100,IF(B1&lt;11025,115-B1/441,IF(B1&lt;85995,3285/34-B1/1666,IF(B1&lt;=88200,1800-B1/49,0))))),0)</f>
+        <f>ROUND(IF(B1&lt;2205,B1/22.05,IF(B1&lt;11025,425/4-5*B1/1764,IF(B1&lt;85995,75,IF(B1&lt;=88200,3000-5*B1/147,0)))),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2923,12 +879,12 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B65" si="0">441*A2</f>
-        <v>441</v>
+        <f t="shared" ref="B2:B61" si="0">1470*A2</f>
+        <v>1470</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C65" si="1">ROUND(IF(B2&lt;2205,B2/22.05,IF(B2&lt;6615,100,IF(B2&lt;11025,115-B2/441,IF(B2&lt;85995,3285/34-B2/1666,IF(B2&lt;=88200,1800-B2/49,0))))),0)</f>
-        <v>20</v>
+        <f t="shared" ref="C2:C61" si="1">ROUND(IF(B2&lt;2205,B2/22.05,IF(B2&lt;11025,425/4-5*B2/1764,IF(B2&lt;85995,75,IF(B2&lt;=88200,3000-5*B2/147,0)))),0)</f>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2937,11 +893,11 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>882</v>
+        <v>2940</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2950,11 +906,11 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>1323</v>
+        <v>4410</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2963,11 +919,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1764</v>
+        <v>5880</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2976,11 +932,11 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>2205</v>
+        <v>7350</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2989,11 +945,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>2646</v>
+        <v>8820</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3002,11 +958,11 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>3087</v>
+        <v>10290</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3015,11 +971,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>3528</v>
+        <v>11760</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3028,11 +984,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>3969</v>
+        <v>13230</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3041,11 +997,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>4410</v>
+        <v>14700</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3054,11 +1010,11 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>4851</v>
+        <v>16170</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3067,11 +1023,11 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>5292</v>
+        <v>17640</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3080,11 +1036,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>5733</v>
+        <v>19110</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3093,11 +1049,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>6174</v>
+        <v>20580</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3106,11 +1062,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>6615</v>
+        <v>22050</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3119,11 +1075,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>7056</v>
+        <v>23520</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3132,11 +1088,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>7497</v>
+        <v>24990</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3145,11 +1101,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>7938</v>
+        <v>26460</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3158,11 +1114,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>8379</v>
+        <v>27930</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3171,11 +1127,11 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>8820</v>
+        <v>29400</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3184,11 +1140,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>9261</v>
+        <v>30870</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3197,11 +1153,11 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>9702</v>
+        <v>32340</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3210,11 +1166,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>10143</v>
+        <v>33810</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3223,11 +1179,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>10584</v>
+        <v>35280</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3236,11 +1192,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>11025</v>
+        <v>36750</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3249,11 +1205,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>11466</v>
+        <v>38220</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3262,11 +1218,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>11907</v>
+        <v>39690</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3275,11 +1231,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>12348</v>
+        <v>41160</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3288,11 +1244,11 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>12789</v>
+        <v>42630</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3301,11 +1257,11 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13230</v>
+        <v>44100</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3314,11 +1270,11 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>13671</v>
+        <v>45570</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3327,11 +1283,11 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>14112</v>
+        <v>47040</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3340,11 +1296,11 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>14553</v>
+        <v>48510</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3353,11 +1309,11 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>14994</v>
+        <v>49980</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3366,11 +1322,11 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>15435</v>
+        <v>51450</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3379,11 +1335,11 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>15876</v>
+        <v>52920</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3392,11 +1348,11 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>16317</v>
+        <v>54390</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3405,11 +1361,11 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>16758</v>
+        <v>55860</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3418,11 +1374,11 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>17199</v>
+        <v>57330</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3431,11 +1387,11 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>17640</v>
+        <v>58800</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3444,11 +1400,11 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>18081</v>
+        <v>60270</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3457,11 +1413,11 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>18522</v>
+        <v>61740</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3470,11 +1426,11 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>18963</v>
+        <v>63210</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,11 +1439,11 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>19404</v>
+        <v>64680</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3496,11 +1452,11 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>19845</v>
+        <v>66150</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3509,11 +1465,11 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>20286</v>
+        <v>67620</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3522,11 +1478,11 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>20727</v>
+        <v>69090</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3535,11 +1491,11 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>21168</v>
+        <v>70560</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3548,11 +1504,11 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>21609</v>
+        <v>72030</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3561,11 +1517,11 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>22050</v>
+        <v>73500</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3574,11 +1530,11 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>22491</v>
+        <v>74970</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3587,11 +1543,11 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>22932</v>
+        <v>76440</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3600,11 +1556,11 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>23373</v>
+        <v>77910</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3613,11 +1569,11 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>23814</v>
+        <v>79380</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3626,11 +1582,11 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>24255</v>
+        <v>80850</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3639,11 +1595,11 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>24696</v>
+        <v>82320</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3652,11 +1608,11 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>25137</v>
+        <v>83790</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3665,11 +1621,11 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>25578</v>
+        <v>85260</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3678,11 +1634,11 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>26019</v>
+        <v>86730</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3691,4430 +1647,10 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>26460</v>
+        <v>88200</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
-        <v>26901</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="0"/>
-        <v>27342</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="0"/>
-        <v>27783</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="0"/>
-        <v>28224</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <f t="shared" ref="B66:B129" si="2">441*A66</f>
-        <v>28665</v>
-      </c>
-      <c r="C66">
-        <f t="shared" ref="C66:C129" si="3">ROUND(IF(B66&lt;2205,B66/22.05,IF(B66&lt;6615,100,IF(B66&lt;11025,115-B66/441,IF(B66&lt;85995,3285/34-B66/1666,IF(B66&lt;=88200,1800-B66/49,0))))),0)</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <f t="shared" si="2"/>
-        <v>29106</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="3"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="2"/>
-        <v>29547</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="3"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="2"/>
-        <v>29988</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="3"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="2"/>
-        <v>30429</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="2"/>
-        <v>30870</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="2"/>
-        <v>31311</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="2"/>
-        <v>31752</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="2"/>
-        <v>32193</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="2"/>
-        <v>32634</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="2"/>
-        <v>33075</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="2"/>
-        <v>33516</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="2"/>
-        <v>33957</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="3"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="2"/>
-        <v>34398</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="3"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="2"/>
-        <v>34839</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="3"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="2"/>
-        <v>35280</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="2"/>
-        <v>35721</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="2"/>
-        <v>36162</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="2"/>
-        <v>36603</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="2"/>
-        <v>37044</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="2"/>
-        <v>37485</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="2"/>
-        <v>37926</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="2"/>
-        <v>38367</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="2"/>
-        <v>38808</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="3"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="2"/>
-        <v>39249</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="3"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="2"/>
-        <v>39690</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="3"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="2"/>
-        <v>40131</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="3"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="2"/>
-        <v>40572</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="2"/>
-        <v>41013</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="2"/>
-        <v>41454</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="2"/>
-        <v>41895</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="3"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="2"/>
-        <v>42336</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="3"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="2"/>
-        <v>42777</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="3"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="2"/>
-        <v>43218</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="3"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="2"/>
-        <v>43659</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="2"/>
-        <v>44100</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="2"/>
-        <v>44541</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <f t="shared" si="2"/>
-        <v>44982</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <f t="shared" si="2"/>
-        <v>45423</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="3"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105">
-        <f t="shared" si="2"/>
-        <v>45864</v>
-      </c>
-      <c r="C105">
-        <f t="shared" si="3"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106">
-        <f t="shared" si="2"/>
-        <v>46305</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="3"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <f t="shared" si="2"/>
-        <v>46746</v>
-      </c>
-      <c r="C107">
-        <f t="shared" si="3"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108">
-        <f t="shared" si="2"/>
-        <v>47187</v>
-      </c>
-      <c r="C108">
-        <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <f t="shared" si="2"/>
-        <v>47628</v>
-      </c>
-      <c r="C109">
-        <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110">
-        <f t="shared" si="2"/>
-        <v>48069</v>
-      </c>
-      <c r="C110">
-        <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111">
-        <f t="shared" si="2"/>
-        <v>48510</v>
-      </c>
-      <c r="C111">
-        <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112">
-        <f t="shared" si="2"/>
-        <v>48951</v>
-      </c>
-      <c r="C112">
-        <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113">
-        <f t="shared" si="2"/>
-        <v>49392</v>
-      </c>
-      <c r="C113">
-        <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114">
-        <f t="shared" si="2"/>
-        <v>49833</v>
-      </c>
-      <c r="C114">
-        <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115">
-        <f t="shared" si="2"/>
-        <v>50274</v>
-      </c>
-      <c r="C115">
-        <f t="shared" si="3"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116">
-        <f t="shared" si="2"/>
-        <v>50715</v>
-      </c>
-      <c r="C116">
-        <f t="shared" si="3"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117">
-        <f t="shared" si="2"/>
-        <v>51156</v>
-      </c>
-      <c r="C117">
-        <f t="shared" si="3"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118">
-        <f t="shared" si="2"/>
-        <v>51597</v>
-      </c>
-      <c r="C118">
-        <f t="shared" si="3"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119">
-        <f t="shared" si="2"/>
-        <v>52038</v>
-      </c>
-      <c r="C119">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120">
-        <f t="shared" si="2"/>
-        <v>52479</v>
-      </c>
-      <c r="C120">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121">
-        <f t="shared" si="2"/>
-        <v>52920</v>
-      </c>
-      <c r="C121">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122">
-        <f t="shared" si="2"/>
-        <v>53361</v>
-      </c>
-      <c r="C122">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123">
-        <f t="shared" si="2"/>
-        <v>53802</v>
-      </c>
-      <c r="C123">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124">
-        <f t="shared" si="2"/>
-        <v>54243</v>
-      </c>
-      <c r="C124">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125">
-        <f t="shared" si="2"/>
-        <v>54684</v>
-      </c>
-      <c r="C125">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126">
-        <f t="shared" si="2"/>
-        <v>55125</v>
-      </c>
-      <c r="C126">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127">
-        <f t="shared" si="2"/>
-        <v>55566</v>
-      </c>
-      <c r="C127">
-        <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128">
-        <f t="shared" si="2"/>
-        <v>56007</v>
-      </c>
-      <c r="C128">
-        <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129">
-        <f t="shared" si="2"/>
-        <v>56448</v>
-      </c>
-      <c r="C129">
-        <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130">
-        <f t="shared" ref="B130:B193" si="4">441*A130</f>
-        <v>56889</v>
-      </c>
-      <c r="C130">
-        <f t="shared" ref="C130:C193" si="5">ROUND(IF(B130&lt;2205,B130/22.05,IF(B130&lt;6615,100,IF(B130&lt;11025,115-B130/441,IF(B130&lt;85995,3285/34-B130/1666,IF(B130&lt;=88200,1800-B130/49,0))))),0)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131">
-        <f t="shared" si="4"/>
-        <v>57330</v>
-      </c>
-      <c r="C131">
-        <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132">
-        <f t="shared" si="4"/>
-        <v>57771</v>
-      </c>
-      <c r="C132">
-        <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133">
-        <f t="shared" si="4"/>
-        <v>58212</v>
-      </c>
-      <c r="C133">
-        <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134">
-        <f t="shared" si="4"/>
-        <v>58653</v>
-      </c>
-      <c r="C134">
-        <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135">
-        <f t="shared" si="4"/>
-        <v>59094</v>
-      </c>
-      <c r="C135">
-        <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136">
-        <f t="shared" si="4"/>
-        <v>59535</v>
-      </c>
-      <c r="C136">
-        <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137">
-        <f t="shared" si="4"/>
-        <v>59976</v>
-      </c>
-      <c r="C137">
-        <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138">
-        <f t="shared" si="4"/>
-        <v>60417</v>
-      </c>
-      <c r="C138">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139">
-        <f t="shared" si="4"/>
-        <v>60858</v>
-      </c>
-      <c r="C139">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140">
-        <f t="shared" si="4"/>
-        <v>61299</v>
-      </c>
-      <c r="C140">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141">
-        <f t="shared" si="4"/>
-        <v>61740</v>
-      </c>
-      <c r="C141">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142">
-        <f t="shared" si="4"/>
-        <v>62181</v>
-      </c>
-      <c r="C142">
-        <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143">
-        <f t="shared" si="4"/>
-        <v>62622</v>
-      </c>
-      <c r="C143">
-        <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144">
-        <f t="shared" si="4"/>
-        <v>63063</v>
-      </c>
-      <c r="C144">
-        <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145">
-        <f t="shared" si="4"/>
-        <v>63504</v>
-      </c>
-      <c r="C145">
-        <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146">
-        <f t="shared" si="4"/>
-        <v>63945</v>
-      </c>
-      <c r="C146">
-        <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147">
-        <f t="shared" si="4"/>
-        <v>64386</v>
-      </c>
-      <c r="C147">
-        <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148">
-        <f t="shared" si="4"/>
-        <v>64827</v>
-      </c>
-      <c r="C148">
-        <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149">
-        <f t="shared" si="4"/>
-        <v>65268</v>
-      </c>
-      <c r="C149">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150">
-        <f t="shared" si="4"/>
-        <v>65709</v>
-      </c>
-      <c r="C150">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151">
-        <f t="shared" si="4"/>
-        <v>66150</v>
-      </c>
-      <c r="C151">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152">
-        <f t="shared" si="4"/>
-        <v>66591</v>
-      </c>
-      <c r="C152">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153">
-        <f t="shared" si="4"/>
-        <v>67032</v>
-      </c>
-      <c r="C153">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="B154">
-        <f t="shared" si="4"/>
-        <v>67473</v>
-      </c>
-      <c r="C154">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155">
-        <f t="shared" si="4"/>
-        <v>67914</v>
-      </c>
-      <c r="C155">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156">
-        <f t="shared" si="4"/>
-        <v>68355</v>
-      </c>
-      <c r="C156">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157">
-        <f t="shared" si="4"/>
-        <v>68796</v>
-      </c>
-      <c r="C157">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="B158">
-        <f t="shared" si="4"/>
-        <v>69237</v>
-      </c>
-      <c r="C158">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="B159">
-        <f t="shared" si="4"/>
-        <v>69678</v>
-      </c>
-      <c r="C159">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="B160">
-        <f t="shared" si="4"/>
-        <v>70119</v>
-      </c>
-      <c r="C160">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="B161">
-        <f t="shared" si="4"/>
-        <v>70560</v>
-      </c>
-      <c r="C161">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>161</v>
-      </c>
-      <c r="B162">
-        <f t="shared" si="4"/>
-        <v>71001</v>
-      </c>
-      <c r="C162">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>162</v>
-      </c>
-      <c r="B163">
-        <f t="shared" si="4"/>
-        <v>71442</v>
-      </c>
-      <c r="C163">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="B164">
-        <f t="shared" si="4"/>
-        <v>71883</v>
-      </c>
-      <c r="C164">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>164</v>
-      </c>
-      <c r="B165">
-        <f t="shared" si="4"/>
-        <v>72324</v>
-      </c>
-      <c r="C165">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>165</v>
-      </c>
-      <c r="B166">
-        <f t="shared" si="4"/>
-        <v>72765</v>
-      </c>
-      <c r="C166">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>166</v>
-      </c>
-      <c r="B167">
-        <f t="shared" si="4"/>
-        <v>73206</v>
-      </c>
-      <c r="C167">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>167</v>
-      </c>
-      <c r="B168">
-        <f t="shared" si="4"/>
-        <v>73647</v>
-      </c>
-      <c r="C168">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169">
-        <f t="shared" si="4"/>
-        <v>74088</v>
-      </c>
-      <c r="C169">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>169</v>
-      </c>
-      <c r="B170">
-        <f t="shared" si="4"/>
-        <v>74529</v>
-      </c>
-      <c r="C170">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="B171">
-        <f t="shared" si="4"/>
-        <v>74970</v>
-      </c>
-      <c r="C171">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>171</v>
-      </c>
-      <c r="B172">
-        <f t="shared" si="4"/>
-        <v>75411</v>
-      </c>
-      <c r="C172">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>172</v>
-      </c>
-      <c r="B173">
-        <f t="shared" si="4"/>
-        <v>75852</v>
-      </c>
-      <c r="C173">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>173</v>
-      </c>
-      <c r="B174">
-        <f t="shared" si="4"/>
-        <v>76293</v>
-      </c>
-      <c r="C174">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="B175">
-        <f t="shared" si="4"/>
-        <v>76734</v>
-      </c>
-      <c r="C175">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>175</v>
-      </c>
-      <c r="B176">
-        <f t="shared" si="4"/>
-        <v>77175</v>
-      </c>
-      <c r="C176">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>176</v>
-      </c>
-      <c r="B177">
-        <f t="shared" si="4"/>
-        <v>77616</v>
-      </c>
-      <c r="C177">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>177</v>
-      </c>
-      <c r="B178">
-        <f t="shared" si="4"/>
-        <v>78057</v>
-      </c>
-      <c r="C178">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>178</v>
-      </c>
-      <c r="B179">
-        <f t="shared" si="4"/>
-        <v>78498</v>
-      </c>
-      <c r="C179">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>179</v>
-      </c>
-      <c r="B180">
-        <f t="shared" si="4"/>
-        <v>78939</v>
-      </c>
-      <c r="C180">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>180</v>
-      </c>
-      <c r="B181">
-        <f t="shared" si="4"/>
-        <v>79380</v>
-      </c>
-      <c r="C181">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>181</v>
-      </c>
-      <c r="B182">
-        <f t="shared" si="4"/>
-        <v>79821</v>
-      </c>
-      <c r="C182">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>182</v>
-      </c>
-      <c r="B183">
-        <f t="shared" si="4"/>
-        <v>80262</v>
-      </c>
-      <c r="C183">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>183</v>
-      </c>
-      <c r="B184">
-        <f t="shared" si="4"/>
-        <v>80703</v>
-      </c>
-      <c r="C184">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>184</v>
-      </c>
-      <c r="B185">
-        <f t="shared" si="4"/>
-        <v>81144</v>
-      </c>
-      <c r="C185">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>185</v>
-      </c>
-      <c r="B186">
-        <f t="shared" si="4"/>
-        <v>81585</v>
-      </c>
-      <c r="C186">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>186</v>
-      </c>
-      <c r="B187">
-        <f t="shared" si="4"/>
-        <v>82026</v>
-      </c>
-      <c r="C187">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>187</v>
-      </c>
-      <c r="B188">
-        <f t="shared" si="4"/>
-        <v>82467</v>
-      </c>
-      <c r="C188">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>188</v>
-      </c>
-      <c r="B189">
-        <f t="shared" si="4"/>
-        <v>82908</v>
-      </c>
-      <c r="C189">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>189</v>
-      </c>
-      <c r="B190">
-        <f t="shared" si="4"/>
-        <v>83349</v>
-      </c>
-      <c r="C190">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>190</v>
-      </c>
-      <c r="B191">
-        <f t="shared" si="4"/>
-        <v>83790</v>
-      </c>
-      <c r="C191">
-        <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>191</v>
-      </c>
-      <c r="B192">
-        <f t="shared" si="4"/>
-        <v>84231</v>
-      </c>
-      <c r="C192">
-        <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>192</v>
-      </c>
-      <c r="B193">
-        <f t="shared" si="4"/>
-        <v>84672</v>
-      </c>
-      <c r="C193">
-        <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>193</v>
-      </c>
-      <c r="B194">
-        <f t="shared" ref="B194:B257" si="6">441*A194</f>
-        <v>85113</v>
-      </c>
-      <c r="C194">
-        <f t="shared" ref="C194:C257" si="7">ROUND(IF(B194&lt;2205,B194/22.05,IF(B194&lt;6615,100,IF(B194&lt;11025,115-B194/441,IF(B194&lt;85995,3285/34-B194/1666,IF(B194&lt;=88200,1800-B194/49,0))))),0)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>194</v>
-      </c>
-      <c r="B195">
-        <f t="shared" si="6"/>
-        <v>85554</v>
-      </c>
-      <c r="C195">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>195</v>
-      </c>
-      <c r="B196">
-        <f t="shared" si="6"/>
-        <v>85995</v>
-      </c>
-      <c r="C196">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>196</v>
-      </c>
-      <c r="B197">
-        <f t="shared" si="6"/>
-        <v>86436</v>
-      </c>
-      <c r="C197">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>197</v>
-      </c>
-      <c r="B198">
-        <f t="shared" si="6"/>
-        <v>86877</v>
-      </c>
-      <c r="C198">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>198</v>
-      </c>
-      <c r="B199">
-        <f t="shared" si="6"/>
-        <v>87318</v>
-      </c>
-      <c r="C199">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>199</v>
-      </c>
-      <c r="B200">
-        <f t="shared" si="6"/>
-        <v>87759</v>
-      </c>
-      <c r="C200">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>200</v>
-      </c>
-      <c r="B201">
-        <f t="shared" si="6"/>
-        <v>88200</v>
-      </c>
-      <c r="C201">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>201</v>
-      </c>
-      <c r="B202">
-        <f t="shared" si="6"/>
-        <v>88641</v>
-      </c>
-      <c r="C202">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>202</v>
-      </c>
-      <c r="B203">
-        <f t="shared" si="6"/>
-        <v>89082</v>
-      </c>
-      <c r="C203">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>203</v>
-      </c>
-      <c r="B204">
-        <f t="shared" si="6"/>
-        <v>89523</v>
-      </c>
-      <c r="C204">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>204</v>
-      </c>
-      <c r="B205">
-        <f t="shared" si="6"/>
-        <v>89964</v>
-      </c>
-      <c r="C205">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>205</v>
-      </c>
-      <c r="B206">
-        <f t="shared" si="6"/>
-        <v>90405</v>
-      </c>
-      <c r="C206">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>206</v>
-      </c>
-      <c r="B207">
-        <f t="shared" si="6"/>
-        <v>90846</v>
-      </c>
-      <c r="C207">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>207</v>
-      </c>
-      <c r="B208">
-        <f t="shared" si="6"/>
-        <v>91287</v>
-      </c>
-      <c r="C208">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>208</v>
-      </c>
-      <c r="B209">
-        <f t="shared" si="6"/>
-        <v>91728</v>
-      </c>
-      <c r="C209">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>209</v>
-      </c>
-      <c r="B210">
-        <f t="shared" si="6"/>
-        <v>92169</v>
-      </c>
-      <c r="C210">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>210</v>
-      </c>
-      <c r="B211">
-        <f t="shared" si="6"/>
-        <v>92610</v>
-      </c>
-      <c r="C211">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>211</v>
-      </c>
-      <c r="B212">
-        <f t="shared" si="6"/>
-        <v>93051</v>
-      </c>
-      <c r="C212">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>212</v>
-      </c>
-      <c r="B213">
-        <f t="shared" si="6"/>
-        <v>93492</v>
-      </c>
-      <c r="C213">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>213</v>
-      </c>
-      <c r="B214">
-        <f t="shared" si="6"/>
-        <v>93933</v>
-      </c>
-      <c r="C214">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>214</v>
-      </c>
-      <c r="B215">
-        <f t="shared" si="6"/>
-        <v>94374</v>
-      </c>
-      <c r="C215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>215</v>
-      </c>
-      <c r="B216">
-        <f t="shared" si="6"/>
-        <v>94815</v>
-      </c>
-      <c r="C216">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>216</v>
-      </c>
-      <c r="B217">
-        <f t="shared" si="6"/>
-        <v>95256</v>
-      </c>
-      <c r="C217">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>217</v>
-      </c>
-      <c r="B218">
-        <f t="shared" si="6"/>
-        <v>95697</v>
-      </c>
-      <c r="C218">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>218</v>
-      </c>
-      <c r="B219">
-        <f t="shared" si="6"/>
-        <v>96138</v>
-      </c>
-      <c r="C219">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>219</v>
-      </c>
-      <c r="B220">
-        <f t="shared" si="6"/>
-        <v>96579</v>
-      </c>
-      <c r="C220">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>220</v>
-      </c>
-      <c r="B221">
-        <f t="shared" si="6"/>
-        <v>97020</v>
-      </c>
-      <c r="C221">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>221</v>
-      </c>
-      <c r="B222">
-        <f t="shared" si="6"/>
-        <v>97461</v>
-      </c>
-      <c r="C222">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>222</v>
-      </c>
-      <c r="B223">
-        <f t="shared" si="6"/>
-        <v>97902</v>
-      </c>
-      <c r="C223">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>223</v>
-      </c>
-      <c r="B224">
-        <f t="shared" si="6"/>
-        <v>98343</v>
-      </c>
-      <c r="C224">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>224</v>
-      </c>
-      <c r="B225">
-        <f t="shared" si="6"/>
-        <v>98784</v>
-      </c>
-      <c r="C225">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>225</v>
-      </c>
-      <c r="B226">
-        <f t="shared" si="6"/>
-        <v>99225</v>
-      </c>
-      <c r="C226">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>226</v>
-      </c>
-      <c r="B227">
-        <f t="shared" si="6"/>
-        <v>99666</v>
-      </c>
-      <c r="C227">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>227</v>
-      </c>
-      <c r="B228">
-        <f t="shared" si="6"/>
-        <v>100107</v>
-      </c>
-      <c r="C228">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>228</v>
-      </c>
-      <c r="B229">
-        <f t="shared" si="6"/>
-        <v>100548</v>
-      </c>
-      <c r="C229">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>229</v>
-      </c>
-      <c r="B230">
-        <f t="shared" si="6"/>
-        <v>100989</v>
-      </c>
-      <c r="C230">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>230</v>
-      </c>
-      <c r="B231">
-        <f t="shared" si="6"/>
-        <v>101430</v>
-      </c>
-      <c r="C231">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>231</v>
-      </c>
-      <c r="B232">
-        <f t="shared" si="6"/>
-        <v>101871</v>
-      </c>
-      <c r="C232">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>232</v>
-      </c>
-      <c r="B233">
-        <f t="shared" si="6"/>
-        <v>102312</v>
-      </c>
-      <c r="C233">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>233</v>
-      </c>
-      <c r="B234">
-        <f t="shared" si="6"/>
-        <v>102753</v>
-      </c>
-      <c r="C234">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>234</v>
-      </c>
-      <c r="B235">
-        <f t="shared" si="6"/>
-        <v>103194</v>
-      </c>
-      <c r="C235">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>235</v>
-      </c>
-      <c r="B236">
-        <f t="shared" si="6"/>
-        <v>103635</v>
-      </c>
-      <c r="C236">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>236</v>
-      </c>
-      <c r="B237">
-        <f t="shared" si="6"/>
-        <v>104076</v>
-      </c>
-      <c r="C237">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>237</v>
-      </c>
-      <c r="B238">
-        <f t="shared" si="6"/>
-        <v>104517</v>
-      </c>
-      <c r="C238">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>238</v>
-      </c>
-      <c r="B239">
-        <f t="shared" si="6"/>
-        <v>104958</v>
-      </c>
-      <c r="C239">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>239</v>
-      </c>
-      <c r="B240">
-        <f t="shared" si="6"/>
-        <v>105399</v>
-      </c>
-      <c r="C240">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>240</v>
-      </c>
-      <c r="B241">
-        <f t="shared" si="6"/>
-        <v>105840</v>
-      </c>
-      <c r="C241">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>241</v>
-      </c>
-      <c r="B242">
-        <f t="shared" si="6"/>
-        <v>106281</v>
-      </c>
-      <c r="C242">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>242</v>
-      </c>
-      <c r="B243">
-        <f t="shared" si="6"/>
-        <v>106722</v>
-      </c>
-      <c r="C243">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>243</v>
-      </c>
-      <c r="B244">
-        <f t="shared" si="6"/>
-        <v>107163</v>
-      </c>
-      <c r="C244">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>244</v>
-      </c>
-      <c r="B245">
-        <f t="shared" si="6"/>
-        <v>107604</v>
-      </c>
-      <c r="C245">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>245</v>
-      </c>
-      <c r="B246">
-        <f t="shared" si="6"/>
-        <v>108045</v>
-      </c>
-      <c r="C246">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>246</v>
-      </c>
-      <c r="B247">
-        <f t="shared" si="6"/>
-        <v>108486</v>
-      </c>
-      <c r="C247">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>247</v>
-      </c>
-      <c r="B248">
-        <f t="shared" si="6"/>
-        <v>108927</v>
-      </c>
-      <c r="C248">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>248</v>
-      </c>
-      <c r="B249">
-        <f t="shared" si="6"/>
-        <v>109368</v>
-      </c>
-      <c r="C249">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>249</v>
-      </c>
-      <c r="B250">
-        <f t="shared" si="6"/>
-        <v>109809</v>
-      </c>
-      <c r="C250">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>250</v>
-      </c>
-      <c r="B251">
-        <f t="shared" si="6"/>
-        <v>110250</v>
-      </c>
-      <c r="C251">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>251</v>
-      </c>
-      <c r="B252">
-        <f t="shared" si="6"/>
-        <v>110691</v>
-      </c>
-      <c r="C252">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>252</v>
-      </c>
-      <c r="B253">
-        <f t="shared" si="6"/>
-        <v>111132</v>
-      </c>
-      <c r="C253">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>253</v>
-      </c>
-      <c r="B254">
-        <f t="shared" si="6"/>
-        <v>111573</v>
-      </c>
-      <c r="C254">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>254</v>
-      </c>
-      <c r="B255">
-        <f t="shared" si="6"/>
-        <v>112014</v>
-      </c>
-      <c r="C255">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>255</v>
-      </c>
-      <c r="B256">
-        <f t="shared" si="6"/>
-        <v>112455</v>
-      </c>
-      <c r="C256">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>256</v>
-      </c>
-      <c r="B257">
-        <f t="shared" si="6"/>
-        <v>112896</v>
-      </c>
-      <c r="C257">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>257</v>
-      </c>
-      <c r="B258">
-        <f t="shared" ref="B258:B321" si="8">441*A258</f>
-        <v>113337</v>
-      </c>
-      <c r="C258">
-        <f t="shared" ref="C258:C321" si="9">ROUND(IF(B258&lt;2205,B258/22.05,IF(B258&lt;6615,100,IF(B258&lt;11025,115-B258/441,IF(B258&lt;85995,3285/34-B258/1666,IF(B258&lt;=88200,1800-B258/49,0))))),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>258</v>
-      </c>
-      <c r="B259">
-        <f t="shared" si="8"/>
-        <v>113778</v>
-      </c>
-      <c r="C259">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>259</v>
-      </c>
-      <c r="B260">
-        <f t="shared" si="8"/>
-        <v>114219</v>
-      </c>
-      <c r="C260">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>260</v>
-      </c>
-      <c r="B261">
-        <f t="shared" si="8"/>
-        <v>114660</v>
-      </c>
-      <c r="C261">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>261</v>
-      </c>
-      <c r="B262">
-        <f t="shared" si="8"/>
-        <v>115101</v>
-      </c>
-      <c r="C262">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>262</v>
-      </c>
-      <c r="B263">
-        <f t="shared" si="8"/>
-        <v>115542</v>
-      </c>
-      <c r="C263">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>263</v>
-      </c>
-      <c r="B264">
-        <f t="shared" si="8"/>
-        <v>115983</v>
-      </c>
-      <c r="C264">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>264</v>
-      </c>
-      <c r="B265">
-        <f t="shared" si="8"/>
-        <v>116424</v>
-      </c>
-      <c r="C265">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>265</v>
-      </c>
-      <c r="B266">
-        <f t="shared" si="8"/>
-        <v>116865</v>
-      </c>
-      <c r="C266">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>266</v>
-      </c>
-      <c r="B267">
-        <f t="shared" si="8"/>
-        <v>117306</v>
-      </c>
-      <c r="C267">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>267</v>
-      </c>
-      <c r="B268">
-        <f t="shared" si="8"/>
-        <v>117747</v>
-      </c>
-      <c r="C268">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>268</v>
-      </c>
-      <c r="B269">
-        <f t="shared" si="8"/>
-        <v>118188</v>
-      </c>
-      <c r="C269">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>269</v>
-      </c>
-      <c r="B270">
-        <f t="shared" si="8"/>
-        <v>118629</v>
-      </c>
-      <c r="C270">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>270</v>
-      </c>
-      <c r="B271">
-        <f t="shared" si="8"/>
-        <v>119070</v>
-      </c>
-      <c r="C271">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>271</v>
-      </c>
-      <c r="B272">
-        <f t="shared" si="8"/>
-        <v>119511</v>
-      </c>
-      <c r="C272">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>272</v>
-      </c>
-      <c r="B273">
-        <f t="shared" si="8"/>
-        <v>119952</v>
-      </c>
-      <c r="C273">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>273</v>
-      </c>
-      <c r="B274">
-        <f t="shared" si="8"/>
-        <v>120393</v>
-      </c>
-      <c r="C274">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>274</v>
-      </c>
-      <c r="B275">
-        <f t="shared" si="8"/>
-        <v>120834</v>
-      </c>
-      <c r="C275">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>275</v>
-      </c>
-      <c r="B276">
-        <f t="shared" si="8"/>
-        <v>121275</v>
-      </c>
-      <c r="C276">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>276</v>
-      </c>
-      <c r="B277">
-        <f t="shared" si="8"/>
-        <v>121716</v>
-      </c>
-      <c r="C277">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>277</v>
-      </c>
-      <c r="B278">
-        <f t="shared" si="8"/>
-        <v>122157</v>
-      </c>
-      <c r="C278">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>278</v>
-      </c>
-      <c r="B279">
-        <f t="shared" si="8"/>
-        <v>122598</v>
-      </c>
-      <c r="C279">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>279</v>
-      </c>
-      <c r="B280">
-        <f t="shared" si="8"/>
-        <v>123039</v>
-      </c>
-      <c r="C280">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>280</v>
-      </c>
-      <c r="B281">
-        <f t="shared" si="8"/>
-        <v>123480</v>
-      </c>
-      <c r="C281">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>281</v>
-      </c>
-      <c r="B282">
-        <f t="shared" si="8"/>
-        <v>123921</v>
-      </c>
-      <c r="C282">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>282</v>
-      </c>
-      <c r="B283">
-        <f t="shared" si="8"/>
-        <v>124362</v>
-      </c>
-      <c r="C283">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284">
-        <v>283</v>
-      </c>
-      <c r="B284">
-        <f t="shared" si="8"/>
-        <v>124803</v>
-      </c>
-      <c r="C284">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>284</v>
-      </c>
-      <c r="B285">
-        <f t="shared" si="8"/>
-        <v>125244</v>
-      </c>
-      <c r="C285">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286">
-        <v>285</v>
-      </c>
-      <c r="B286">
-        <f t="shared" si="8"/>
-        <v>125685</v>
-      </c>
-      <c r="C286">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287">
-        <v>286</v>
-      </c>
-      <c r="B287">
-        <f t="shared" si="8"/>
-        <v>126126</v>
-      </c>
-      <c r="C287">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288">
-        <v>287</v>
-      </c>
-      <c r="B288">
-        <f t="shared" si="8"/>
-        <v>126567</v>
-      </c>
-      <c r="C288">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>288</v>
-      </c>
-      <c r="B289">
-        <f t="shared" si="8"/>
-        <v>127008</v>
-      </c>
-      <c r="C289">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290">
-        <v>289</v>
-      </c>
-      <c r="B290">
-        <f t="shared" si="8"/>
-        <v>127449</v>
-      </c>
-      <c r="C290">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291">
-        <v>290</v>
-      </c>
-      <c r="B291">
-        <f t="shared" si="8"/>
-        <v>127890</v>
-      </c>
-      <c r="C291">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292">
-        <v>291</v>
-      </c>
-      <c r="B292">
-        <f t="shared" si="8"/>
-        <v>128331</v>
-      </c>
-      <c r="C292">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293">
-        <v>292</v>
-      </c>
-      <c r="B293">
-        <f t="shared" si="8"/>
-        <v>128772</v>
-      </c>
-      <c r="C293">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294">
-        <v>293</v>
-      </c>
-      <c r="B294">
-        <f t="shared" si="8"/>
-        <v>129213</v>
-      </c>
-      <c r="C294">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295">
-        <v>294</v>
-      </c>
-      <c r="B295">
-        <f t="shared" si="8"/>
-        <v>129654</v>
-      </c>
-      <c r="C295">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296">
-        <v>295</v>
-      </c>
-      <c r="B296">
-        <f t="shared" si="8"/>
-        <v>130095</v>
-      </c>
-      <c r="C296">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297">
-        <v>296</v>
-      </c>
-      <c r="B297">
-        <f t="shared" si="8"/>
-        <v>130536</v>
-      </c>
-      <c r="C297">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298">
-        <v>297</v>
-      </c>
-      <c r="B298">
-        <f t="shared" si="8"/>
-        <v>130977</v>
-      </c>
-      <c r="C298">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299">
-        <v>298</v>
-      </c>
-      <c r="B299">
-        <f t="shared" si="8"/>
-        <v>131418</v>
-      </c>
-      <c r="C299">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300">
-        <v>299</v>
-      </c>
-      <c r="B300">
-        <f t="shared" si="8"/>
-        <v>131859</v>
-      </c>
-      <c r="C300">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>300</v>
-      </c>
-      <c r="B301">
-        <f t="shared" si="8"/>
-        <v>132300</v>
-      </c>
-      <c r="C301">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>301</v>
-      </c>
-      <c r="B302">
-        <f t="shared" si="8"/>
-        <v>132741</v>
-      </c>
-      <c r="C302">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303">
-        <v>302</v>
-      </c>
-      <c r="B303">
-        <f t="shared" si="8"/>
-        <v>133182</v>
-      </c>
-      <c r="C303">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304">
-        <v>303</v>
-      </c>
-      <c r="B304">
-        <f t="shared" si="8"/>
-        <v>133623</v>
-      </c>
-      <c r="C304">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305">
-        <v>304</v>
-      </c>
-      <c r="B305">
-        <f t="shared" si="8"/>
-        <v>134064</v>
-      </c>
-      <c r="C305">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306">
-        <v>305</v>
-      </c>
-      <c r="B306">
-        <f t="shared" si="8"/>
-        <v>134505</v>
-      </c>
-      <c r="C306">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307">
-        <v>306</v>
-      </c>
-      <c r="B307">
-        <f t="shared" si="8"/>
-        <v>134946</v>
-      </c>
-      <c r="C307">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308">
-        <v>307</v>
-      </c>
-      <c r="B308">
-        <f t="shared" si="8"/>
-        <v>135387</v>
-      </c>
-      <c r="C308">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309">
-        <v>308</v>
-      </c>
-      <c r="B309">
-        <f t="shared" si="8"/>
-        <v>135828</v>
-      </c>
-      <c r="C309">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>309</v>
-      </c>
-      <c r="B310">
-        <f t="shared" si="8"/>
-        <v>136269</v>
-      </c>
-      <c r="C310">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311">
-        <v>310</v>
-      </c>
-      <c r="B311">
-        <f t="shared" si="8"/>
-        <v>136710</v>
-      </c>
-      <c r="C311">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312">
-        <v>311</v>
-      </c>
-      <c r="B312">
-        <f t="shared" si="8"/>
-        <v>137151</v>
-      </c>
-      <c r="C312">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>312</v>
-      </c>
-      <c r="B313">
-        <f t="shared" si="8"/>
-        <v>137592</v>
-      </c>
-      <c r="C313">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314">
-        <v>313</v>
-      </c>
-      <c r="B314">
-        <f t="shared" si="8"/>
-        <v>138033</v>
-      </c>
-      <c r="C314">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315">
-        <v>314</v>
-      </c>
-      <c r="B315">
-        <f t="shared" si="8"/>
-        <v>138474</v>
-      </c>
-      <c r="C315">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>315</v>
-      </c>
-      <c r="B316">
-        <f t="shared" si="8"/>
-        <v>138915</v>
-      </c>
-      <c r="C316">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317">
-        <v>316</v>
-      </c>
-      <c r="B317">
-        <f t="shared" si="8"/>
-        <v>139356</v>
-      </c>
-      <c r="C317">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318">
-        <v>317</v>
-      </c>
-      <c r="B318">
-        <f t="shared" si="8"/>
-        <v>139797</v>
-      </c>
-      <c r="C318">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319">
-        <v>318</v>
-      </c>
-      <c r="B319">
-        <f t="shared" si="8"/>
-        <v>140238</v>
-      </c>
-      <c r="C319">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320">
-        <v>319</v>
-      </c>
-      <c r="B320">
-        <f t="shared" si="8"/>
-        <v>140679</v>
-      </c>
-      <c r="C320">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321">
-        <v>320</v>
-      </c>
-      <c r="B321">
-        <f t="shared" si="8"/>
-        <v>141120</v>
-      </c>
-      <c r="C321">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>321</v>
-      </c>
-      <c r="B322">
-        <f t="shared" ref="B322:B385" si="10">441*A322</f>
-        <v>141561</v>
-      </c>
-      <c r="C322">
-        <f t="shared" ref="C322:C385" si="11">ROUND(IF(B322&lt;2205,B322/22.05,IF(B322&lt;6615,100,IF(B322&lt;11025,115-B322/441,IF(B322&lt;85995,3285/34-B322/1666,IF(B322&lt;=88200,1800-B322/49,0))))),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323">
-        <v>322</v>
-      </c>
-      <c r="B323">
-        <f t="shared" si="10"/>
-        <v>142002</v>
-      </c>
-      <c r="C323">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324">
-        <v>323</v>
-      </c>
-      <c r="B324">
-        <f t="shared" si="10"/>
-        <v>142443</v>
-      </c>
-      <c r="C324">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325">
-        <v>324</v>
-      </c>
-      <c r="B325">
-        <f t="shared" si="10"/>
-        <v>142884</v>
-      </c>
-      <c r="C325">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326">
-        <v>325</v>
-      </c>
-      <c r="B326">
-        <f t="shared" si="10"/>
-        <v>143325</v>
-      </c>
-      <c r="C326">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327">
-        <v>326</v>
-      </c>
-      <c r="B327">
-        <f t="shared" si="10"/>
-        <v>143766</v>
-      </c>
-      <c r="C327">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328">
-        <v>327</v>
-      </c>
-      <c r="B328">
-        <f t="shared" si="10"/>
-        <v>144207</v>
-      </c>
-      <c r="C328">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329">
-        <v>328</v>
-      </c>
-      <c r="B329">
-        <f t="shared" si="10"/>
-        <v>144648</v>
-      </c>
-      <c r="C329">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330">
-        <v>329</v>
-      </c>
-      <c r="B330">
-        <f t="shared" si="10"/>
-        <v>145089</v>
-      </c>
-      <c r="C330">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331">
-        <v>330</v>
-      </c>
-      <c r="B331">
-        <f t="shared" si="10"/>
-        <v>145530</v>
-      </c>
-      <c r="C331">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332">
-        <v>331</v>
-      </c>
-      <c r="B332">
-        <f t="shared" si="10"/>
-        <v>145971</v>
-      </c>
-      <c r="C332">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333">
-        <v>332</v>
-      </c>
-      <c r="B333">
-        <f t="shared" si="10"/>
-        <v>146412</v>
-      </c>
-      <c r="C333">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334">
-        <v>333</v>
-      </c>
-      <c r="B334">
-        <f t="shared" si="10"/>
-        <v>146853</v>
-      </c>
-      <c r="C334">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335">
-        <v>334</v>
-      </c>
-      <c r="B335">
-        <f t="shared" si="10"/>
-        <v>147294</v>
-      </c>
-      <c r="C335">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336">
-        <v>335</v>
-      </c>
-      <c r="B336">
-        <f t="shared" si="10"/>
-        <v>147735</v>
-      </c>
-      <c r="C336">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <v>336</v>
-      </c>
-      <c r="B337">
-        <f t="shared" si="10"/>
-        <v>148176</v>
-      </c>
-      <c r="C337">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338">
-        <v>337</v>
-      </c>
-      <c r="B338">
-        <f t="shared" si="10"/>
-        <v>148617</v>
-      </c>
-      <c r="C338">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339">
-        <v>338</v>
-      </c>
-      <c r="B339">
-        <f t="shared" si="10"/>
-        <v>149058</v>
-      </c>
-      <c r="C339">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340">
-        <v>339</v>
-      </c>
-      <c r="B340">
-        <f t="shared" si="10"/>
-        <v>149499</v>
-      </c>
-      <c r="C340">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341">
-        <v>340</v>
-      </c>
-      <c r="B341">
-        <f t="shared" si="10"/>
-        <v>149940</v>
-      </c>
-      <c r="C341">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342">
-        <v>341</v>
-      </c>
-      <c r="B342">
-        <f t="shared" si="10"/>
-        <v>150381</v>
-      </c>
-      <c r="C342">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343">
-        <v>342</v>
-      </c>
-      <c r="B343">
-        <f t="shared" si="10"/>
-        <v>150822</v>
-      </c>
-      <c r="C343">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344">
-        <v>343</v>
-      </c>
-      <c r="B344">
-        <f t="shared" si="10"/>
-        <v>151263</v>
-      </c>
-      <c r="C344">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345">
-        <v>344</v>
-      </c>
-      <c r="B345">
-        <f t="shared" si="10"/>
-        <v>151704</v>
-      </c>
-      <c r="C345">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346">
-        <v>345</v>
-      </c>
-      <c r="B346">
-        <f t="shared" si="10"/>
-        <v>152145</v>
-      </c>
-      <c r="C346">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347">
-        <v>346</v>
-      </c>
-      <c r="B347">
-        <f t="shared" si="10"/>
-        <v>152586</v>
-      </c>
-      <c r="C347">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348">
-        <v>347</v>
-      </c>
-      <c r="B348">
-        <f t="shared" si="10"/>
-        <v>153027</v>
-      </c>
-      <c r="C348">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349">
-        <v>348</v>
-      </c>
-      <c r="B349">
-        <f t="shared" si="10"/>
-        <v>153468</v>
-      </c>
-      <c r="C349">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350">
-        <v>349</v>
-      </c>
-      <c r="B350">
-        <f t="shared" si="10"/>
-        <v>153909</v>
-      </c>
-      <c r="C350">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351">
-        <v>350</v>
-      </c>
-      <c r="B351">
-        <f t="shared" si="10"/>
-        <v>154350</v>
-      </c>
-      <c r="C351">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352">
-        <v>351</v>
-      </c>
-      <c r="B352">
-        <f t="shared" si="10"/>
-        <v>154791</v>
-      </c>
-      <c r="C352">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353">
-        <v>352</v>
-      </c>
-      <c r="B353">
-        <f t="shared" si="10"/>
-        <v>155232</v>
-      </c>
-      <c r="C353">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354">
-        <v>353</v>
-      </c>
-      <c r="B354">
-        <f t="shared" si="10"/>
-        <v>155673</v>
-      </c>
-      <c r="C354">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355">
-        <v>354</v>
-      </c>
-      <c r="B355">
-        <f t="shared" si="10"/>
-        <v>156114</v>
-      </c>
-      <c r="C355">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356">
-        <v>355</v>
-      </c>
-      <c r="B356">
-        <f t="shared" si="10"/>
-        <v>156555</v>
-      </c>
-      <c r="C356">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357">
-        <v>356</v>
-      </c>
-      <c r="B357">
-        <f t="shared" si="10"/>
-        <v>156996</v>
-      </c>
-      <c r="C357">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358">
-        <v>357</v>
-      </c>
-      <c r="B358">
-        <f t="shared" si="10"/>
-        <v>157437</v>
-      </c>
-      <c r="C358">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359">
-        <v>358</v>
-      </c>
-      <c r="B359">
-        <f t="shared" si="10"/>
-        <v>157878</v>
-      </c>
-      <c r="C359">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360">
-        <v>359</v>
-      </c>
-      <c r="B360">
-        <f t="shared" si="10"/>
-        <v>158319</v>
-      </c>
-      <c r="C360">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361">
-        <v>360</v>
-      </c>
-      <c r="B361">
-        <f t="shared" si="10"/>
-        <v>158760</v>
-      </c>
-      <c r="C361">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362">
-        <v>361</v>
-      </c>
-      <c r="B362">
-        <f t="shared" si="10"/>
-        <v>159201</v>
-      </c>
-      <c r="C362">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363">
-        <v>362</v>
-      </c>
-      <c r="B363">
-        <f t="shared" si="10"/>
-        <v>159642</v>
-      </c>
-      <c r="C363">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364">
-        <v>363</v>
-      </c>
-      <c r="B364">
-        <f t="shared" si="10"/>
-        <v>160083</v>
-      </c>
-      <c r="C364">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365">
-        <v>364</v>
-      </c>
-      <c r="B365">
-        <f t="shared" si="10"/>
-        <v>160524</v>
-      </c>
-      <c r="C365">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366">
-        <v>365</v>
-      </c>
-      <c r="B366">
-        <f t="shared" si="10"/>
-        <v>160965</v>
-      </c>
-      <c r="C366">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367">
-        <v>366</v>
-      </c>
-      <c r="B367">
-        <f t="shared" si="10"/>
-        <v>161406</v>
-      </c>
-      <c r="C367">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368">
-        <v>367</v>
-      </c>
-      <c r="B368">
-        <f t="shared" si="10"/>
-        <v>161847</v>
-      </c>
-      <c r="C368">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369">
-        <v>368</v>
-      </c>
-      <c r="B369">
-        <f t="shared" si="10"/>
-        <v>162288</v>
-      </c>
-      <c r="C369">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370">
-        <v>369</v>
-      </c>
-      <c r="B370">
-        <f t="shared" si="10"/>
-        <v>162729</v>
-      </c>
-      <c r="C370">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371">
-        <v>370</v>
-      </c>
-      <c r="B371">
-        <f t="shared" si="10"/>
-        <v>163170</v>
-      </c>
-      <c r="C371">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372">
-        <v>371</v>
-      </c>
-      <c r="B372">
-        <f t="shared" si="10"/>
-        <v>163611</v>
-      </c>
-      <c r="C372">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373">
-        <v>372</v>
-      </c>
-      <c r="B373">
-        <f t="shared" si="10"/>
-        <v>164052</v>
-      </c>
-      <c r="C373">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374">
-        <v>373</v>
-      </c>
-      <c r="B374">
-        <f t="shared" si="10"/>
-        <v>164493</v>
-      </c>
-      <c r="C374">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375">
-        <v>374</v>
-      </c>
-      <c r="B375">
-        <f t="shared" si="10"/>
-        <v>164934</v>
-      </c>
-      <c r="C375">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376">
-        <v>375</v>
-      </c>
-      <c r="B376">
-        <f t="shared" si="10"/>
-        <v>165375</v>
-      </c>
-      <c r="C376">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377">
-        <v>376</v>
-      </c>
-      <c r="B377">
-        <f t="shared" si="10"/>
-        <v>165816</v>
-      </c>
-      <c r="C377">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378">
-        <v>377</v>
-      </c>
-      <c r="B378">
-        <f t="shared" si="10"/>
-        <v>166257</v>
-      </c>
-      <c r="C378">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379">
-        <v>378</v>
-      </c>
-      <c r="B379">
-        <f t="shared" si="10"/>
-        <v>166698</v>
-      </c>
-      <c r="C379">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380">
-        <v>379</v>
-      </c>
-      <c r="B380">
-        <f t="shared" si="10"/>
-        <v>167139</v>
-      </c>
-      <c r="C380">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381">
-        <v>380</v>
-      </c>
-      <c r="B381">
-        <f t="shared" si="10"/>
-        <v>167580</v>
-      </c>
-      <c r="C381">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382">
-        <v>381</v>
-      </c>
-      <c r="B382">
-        <f t="shared" si="10"/>
-        <v>168021</v>
-      </c>
-      <c r="C382">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383">
-        <v>382</v>
-      </c>
-      <c r="B383">
-        <f t="shared" si="10"/>
-        <v>168462</v>
-      </c>
-      <c r="C383">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384">
-        <v>383</v>
-      </c>
-      <c r="B384">
-        <f t="shared" si="10"/>
-        <v>168903</v>
-      </c>
-      <c r="C384">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385">
-        <v>384</v>
-      </c>
-      <c r="B385">
-        <f t="shared" si="10"/>
-        <v>169344</v>
-      </c>
-      <c r="C385">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386">
-        <v>385</v>
-      </c>
-      <c r="B386">
-        <f t="shared" ref="B386:B401" si="12">441*A386</f>
-        <v>169785</v>
-      </c>
-      <c r="C386">
-        <f t="shared" ref="C386:C401" si="13">ROUND(IF(B386&lt;2205,B386/22.05,IF(B386&lt;6615,100,IF(B386&lt;11025,115-B386/441,IF(B386&lt;85995,3285/34-B386/1666,IF(B386&lt;=88200,1800-B386/49,0))))),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387">
-        <v>386</v>
-      </c>
-      <c r="B387">
-        <f t="shared" si="12"/>
-        <v>170226</v>
-      </c>
-      <c r="C387">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388">
-        <v>387</v>
-      </c>
-      <c r="B388">
-        <f t="shared" si="12"/>
-        <v>170667</v>
-      </c>
-      <c r="C388">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389">
-        <v>388</v>
-      </c>
-      <c r="B389">
-        <f t="shared" si="12"/>
-        <v>171108</v>
-      </c>
-      <c r="C389">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390">
-        <v>389</v>
-      </c>
-      <c r="B390">
-        <f t="shared" si="12"/>
-        <v>171549</v>
-      </c>
-      <c r="C390">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391">
-        <v>390</v>
-      </c>
-      <c r="B391">
-        <f t="shared" si="12"/>
-        <v>171990</v>
-      </c>
-      <c r="C391">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392">
-        <v>391</v>
-      </c>
-      <c r="B392">
-        <f t="shared" si="12"/>
-        <v>172431</v>
-      </c>
-      <c r="C392">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393">
-        <v>392</v>
-      </c>
-      <c r="B393">
-        <f t="shared" si="12"/>
-        <v>172872</v>
-      </c>
-      <c r="C393">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394">
-        <v>393</v>
-      </c>
-      <c r="B394">
-        <f t="shared" si="12"/>
-        <v>173313</v>
-      </c>
-      <c r="C394">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395">
-        <v>394</v>
-      </c>
-      <c r="B395">
-        <f t="shared" si="12"/>
-        <v>173754</v>
-      </c>
-      <c r="C395">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396">
-        <v>395</v>
-      </c>
-      <c r="B396">
-        <f t="shared" si="12"/>
-        <v>174195</v>
-      </c>
-      <c r="C396">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397">
-        <v>396</v>
-      </c>
-      <c r="B397">
-        <f t="shared" si="12"/>
-        <v>174636</v>
-      </c>
-      <c r="C397">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398">
-        <v>397</v>
-      </c>
-      <c r="B398">
-        <f t="shared" si="12"/>
-        <v>175077</v>
-      </c>
-      <c r="C398">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399">
-        <v>398</v>
-      </c>
-      <c r="B399">
-        <f t="shared" si="12"/>
-        <v>175518</v>
-      </c>
-      <c r="C399">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400">
-        <v>399</v>
-      </c>
-      <c r="B400">
-        <f t="shared" si="12"/>
-        <v>175959</v>
-      </c>
-      <c r="C400">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401">
-        <v>400</v>
-      </c>
-      <c r="B401">
-        <f t="shared" si="12"/>
-        <v>176400</v>
-      </c>
-      <c r="C401">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>

--- a/trunk/Lab5/Envelope.xlsx
+++ b/trunk/Lab5/Envelope.xlsx
@@ -290,178 +290,178 @@
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>50</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <f>ROUND(IF(B1&lt;2205,B1/22.05,IF(B1&lt;11025,425/4-5*B1/1764,IF(B1&lt;85995,75,IF(B1&lt;=88200,3000-5*B1/147,0)))),0)</f>
+        <f>ROUND(IF(B1&lt;2205,20*B1/441,IF(B1&lt;11025,100,IF(B1&lt;85995,100,IF(B1&lt;=88200,4000-20*B1/441,0)))),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -883,7 +883,7 @@
         <v>1470</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C61" si="1">ROUND(IF(B2&lt;2205,B2/22.05,IF(B2&lt;11025,425/4-5*B2/1764,IF(B2&lt;85995,75,IF(B2&lt;=88200,3000-5*B2/147,0)))),0)</f>
+        <f t="shared" ref="C2:C61" si="1">ROUND(IF(B2&lt;2205,20*B2/441,IF(B2&lt;11025,100,IF(B2&lt;85995,100,IF(B2&lt;=88200,4000-20*B2/441,0)))),0)</f>
         <v>67</v>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">

--- a/trunk/Lab5/Envelope.xlsx
+++ b/trunk/Lab5/Envelope.xlsx
@@ -287,181 +287,181 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>100</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>100</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>100</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>100</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>100</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>100</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>100</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>100</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>100</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>100</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>100</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>100</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>100</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>100</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>100</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>100</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>100</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>100</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>100</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>100</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>100</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>100</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>100</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>100</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>100</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>100</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>100</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>100</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>100</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>67</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
@@ -856,7 +856,7 @@
   <dimension ref="A1:C88200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <f>ROUND(IF(B1&lt;2205,20*B1/441,IF(B1&lt;11025,100,IF(B1&lt;85995,100,IF(B1&lt;=88200,4000-20*B1/441,0)))),0)</f>
+        <f>ROUND(IF(B1&lt;2205,128*B1/2205,IF(B1&lt;6615,128,IF(B1&lt;11025,736/5-32*B1/11025,IF(B1&lt;85995,10512/85-16*B1/20825,IF(B1&lt;=88200,2304-32*B1/1225,0))))),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -883,8 +883,8 @@
         <v>1470</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C61" si="1">ROUND(IF(B2&lt;2205,20*B2/441,IF(B2&lt;11025,100,IF(B2&lt;85995,100,IF(B2&lt;=88200,4000-20*B2/441,0)))),0)</f>
-        <v>67</v>
+        <f t="shared" ref="C2:C61" si="1">ROUND(IF(B2&lt;2205,128*B2/2205,IF(B2&lt;6615,128,IF(B2&lt;11025,736/5-32*B2/11025,IF(B2&lt;85995,10512/85-16*B2/20825,IF(B2&lt;=88200,2304-32*B2/1225,0))))),0)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">

--- a/trunk/Lab5/Envelope.xlsx
+++ b/trunk/Lab5/Envelope.xlsx
@@ -287,181 +287,181 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>122</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>117</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>115</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>112</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>111</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>110</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>109</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>108</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>107</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>106</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>104</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>103</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>102</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>101</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>100</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>99</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>98</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>95</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>94</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>93</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>92</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>91</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>90</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>89</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>88</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>86</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>85</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>84</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>83</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>82</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>81</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>80</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>78</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>77</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>76</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>75</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>74</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>73</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>72</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>71</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>69</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>68</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>67</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>66</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>65</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>64</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>63</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>62</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>60</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>59</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>38</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
@@ -856,7 +856,7 @@
   <dimension ref="A1:C88200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <f>ROUND(IF(B1&lt;2205,128*B1/2205,IF(B1&lt;6615,128,IF(B1&lt;11025,736/5-32*B1/11025,IF(B1&lt;85995,10512/85-16*B1/20825,IF(B1&lt;=88200,2304-32*B1/1225,0))))),0)</f>
+        <f>ROUND(IF(B1&lt;2205,32*B1/2205,IF(B1&lt;6615,32,IF(B1&lt;11025,184/5-8*B1/11025,IF(B1&lt;85995,2628/85-4*B1/20825,IF(B1&lt;=88200,576-8*B1/1225,0))))),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -883,8 +883,8 @@
         <v>1470</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C61" si="1">ROUND(IF(B2&lt;2205,128*B2/2205,IF(B2&lt;6615,128,IF(B2&lt;11025,736/5-32*B2/11025,IF(B2&lt;85995,10512/85-16*B2/20825,IF(B2&lt;=88200,2304-32*B2/1225,0))))),0)</f>
-        <v>85</v>
+        <f t="shared" ref="C2:C61" si="1">ROUND(IF(B2&lt;2205,32*B2/2205,IF(B2&lt;6615,32,IF(B2&lt;11025,184/5-8*B2/11025,IF(B2&lt;85995,2628/85-4*B2/20825,IF(B2&lt;=88200,576-8*B2/1225,0))))),0)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">

--- a/trunk/Lab5/Envelope.xlsx
+++ b/trunk/Lab5/Envelope.xlsx
@@ -284,10 +284,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="88200"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>32</c:v>
@@ -299,169 +299,169 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="18">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="21">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="22">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="25">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="26">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="27">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="28">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="29">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="30">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>18</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>18</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>17</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>16</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>15</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>15</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
@@ -535,13 +535,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
@@ -856,7 +856,7 @@
   <dimension ref="A1:C88200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,8 +870,8 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <f>ROUND(IF(B1&lt;2205,32*B1/2205,IF(B1&lt;6615,32,IF(B1&lt;11025,184/5-8*B1/11025,IF(B1&lt;85995,2628/85-4*B1/20825,IF(B1&lt;=88200,576-8*B1/1225,0))))),0)</f>
-        <v>0</v>
+        <f>ROUND(-POWER(B1,2)/243101250+32,0)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,8 +883,8 @@
         <v>1470</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C61" si="1">ROUND(IF(B2&lt;2205,32*B2/2205,IF(B2&lt;6615,32,IF(B2&lt;11025,184/5-8*B2/11025,IF(B2&lt;85995,2628/85-4*B2/20825,IF(B2&lt;=88200,576-8*B2/1225,0))))),0)</f>
-        <v>21</v>
+        <f t="shared" ref="C2:C61" si="1">ROUND(-POWER(B2,2)/243101250+32,0)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -10580,8 +10580,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="F2:G121">
-    <sortCondition ref="F1"/>
+  <sortState ref="E2:F121">
+    <sortCondition ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/trunk/Lab5/Envelope.xlsx
+++ b/trunk/Lab5/Envelope.xlsx
@@ -284,46 +284,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="88200"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>30</c:v>
@@ -479,11 +479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:axId val="68769408"/>
         <c:axId val="48513024"/>
-        <c:axId val="48513600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48513024"/>
+        <c:axId val="68769408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -493,12 +493,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48513600"/>
+        <c:crossAx val="48513024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48513600"/>
+        <c:axId val="48513024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,7 +509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48513024"/>
+        <c:crossAx val="68769408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -855,11 +855,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -870,8 +873,8 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <f>ROUND(-POWER(B1,2)/243101250+32,0)</f>
-        <v>32</v>
+        <f>ROUND(IF(B1&lt;=22050,(-POWER(B1-22050,2)+22050*22050)/486202500*30,-POWER(B1,2)/243101250+32),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,8 +886,8 @@
         <v>1470</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C61" si="1">ROUND(-POWER(B2,2)/243101250+32,0)</f>
-        <v>32</v>
+        <f t="shared" ref="C2:C61" si="1">ROUND(IF(B2&lt;=22050,(-POWER(B2-22050,2)+22050*22050)/486202500*30,-POWER(B2,2)/243101250+32),0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,7 +900,7 @@
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,7 +913,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -923,7 +926,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +939,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,7 +952,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -962,7 +965,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -975,7 +978,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -988,7 +991,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,7 +1004,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,7 +1017,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1027,7 +1030,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,7 +1043,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">

--- a/trunk/Lab5/Envelope.xlsx
+++ b/trunk/Lab5/Envelope.xlsx
@@ -287,181 +287,181 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="41">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="42">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="43">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="44">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="45">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="46">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="47">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="48">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="49">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="50">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="51">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="52">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="53">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="54">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="57">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <f>ROUND(IF(B1&lt;=22050,(-POWER(B1-22050,2)+22050*22050)/486202500*30,-POWER(B1,2)/243101250+32),0)</f>
+        <f>ROUND(-B1*(B1-88200)*2/121550625,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -886,8 +886,8 @@
         <v>1470</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C61" si="1">ROUND(IF(B2&lt;=22050,(-POWER(B2-22050,2)+22050*22050)/486202500*30,-POWER(B2,2)/243101250+32),0)</f>
-        <v>4</v>
+        <f t="shared" ref="C2:C61" si="1">ROUND(-B2*(B2-88200)*2/121550625,0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -913,7 +913,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">

--- a/trunk/Lab5/Envelope.xlsx
+++ b/trunk/Lab5/Envelope.xlsx
@@ -290,181 +290,181 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="30">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="33">
                   <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="47">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="48">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="50">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="51">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="53">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="55">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="56">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="57">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="58">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="60">
                   <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,7 +856,7 @@
   <dimension ref="A1:C88200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C1" sqref="C1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>1470*A1</f>
+        <f>1102.5*A1</f>
         <v>0</v>
       </c>
       <c r="C1">
@@ -882,8 +882,8 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B61" si="0">1470*A2</f>
-        <v>1470</v>
+        <f t="shared" ref="B2:B61" si="0">1102.5*A2</f>
+        <v>1102.5</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C61" si="1">ROUND(-B2*(B2-88200)*2/121550625,0)</f>
@@ -896,11 +896,11 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>2940</v>
+        <v>2205</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -909,11 +909,11 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>4410</v>
+        <v>3307.5</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -922,11 +922,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>4410</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,11 +935,11 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>7350</v>
+        <v>5512.5</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,11 +948,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>8820</v>
+        <v>6615</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -961,11 +961,11 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>10290</v>
+        <v>7717.5</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -974,11 +974,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>11760</v>
+        <v>8820</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,11 +987,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>13230</v>
+        <v>9922.5</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1000,11 +1000,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>14700</v>
+        <v>11025</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,11 +1013,11 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>16170</v>
+        <v>12127.5</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,11 +1026,11 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>17640</v>
+        <v>13230</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,11 +1039,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>19110</v>
+        <v>14332.5</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1052,11 +1052,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>20580</v>
+        <v>15435</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1065,11 +1065,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>22050</v>
+        <v>16537.5</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1078,11 +1078,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>23520</v>
+        <v>17640</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1091,11 +1091,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>24990</v>
+        <v>18742.5</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1104,11 +1104,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>26460</v>
+        <v>19845</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1117,11 +1117,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>27930</v>
+        <v>20947.5</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,11 +1130,11 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>29400</v>
+        <v>22050</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1143,11 +1143,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>30870</v>
+        <v>23152.5</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1156,11 +1156,11 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>32340</v>
+        <v>24255</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1169,11 +1169,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>33810</v>
+        <v>25357.5</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>35280</v>
+        <v>26460</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1195,11 +1195,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>36750</v>
+        <v>27562.5</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>38220</v>
+        <v>28665</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1221,11 +1221,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>39690</v>
+        <v>29767.5</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1234,11 +1234,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>41160</v>
+        <v>30870</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1247,11 +1247,11 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>42630</v>
+        <v>31972.5</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1260,11 +1260,11 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>44100</v>
+        <v>33075</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,11 +1273,11 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>45570</v>
+        <v>34177.5</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,11 +1286,11 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>47040</v>
+        <v>35280</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,11 +1299,11 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>48510</v>
+        <v>36382.5</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>49980</v>
+        <v>37485</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -1325,11 +1325,11 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>51450</v>
+        <v>38587.5</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1338,11 +1338,11 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>52920</v>
+        <v>39690</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1351,11 +1351,11 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>54390</v>
+        <v>40792.5</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,11 +1364,11 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>55860</v>
+        <v>41895</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,11 +1377,11 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>57330</v>
+        <v>42997.5</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,11 +1390,11 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>58800</v>
+        <v>44100</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1403,11 +1403,11 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>60270</v>
+        <v>45202.5</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1416,11 +1416,11 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>61740</v>
+        <v>46305</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,11 +1429,11 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>63210</v>
+        <v>47407.5</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,11 +1442,11 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>64680</v>
+        <v>48510</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1455,11 +1455,11 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>66150</v>
+        <v>49612.5</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>67620</v>
+        <v>50715</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1481,11 +1481,11 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>69090</v>
+        <v>51817.5</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1494,11 +1494,11 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>70560</v>
+        <v>52920</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1507,11 +1507,11 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>72030</v>
+        <v>54022.5</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1520,11 +1520,11 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>73500</v>
+        <v>55125</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,11 +1533,11 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>74970</v>
+        <v>56227.5</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1546,11 +1546,11 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>76440</v>
+        <v>57330</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1559,11 +1559,11 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>77910</v>
+        <v>58432.5</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1572,11 +1572,11 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>79380</v>
+        <v>59535</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1585,11 +1585,11 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>80850</v>
+        <v>60637.5</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1598,11 +1598,11 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>82320</v>
+        <v>61740</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1611,11 +1611,11 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>83790</v>
+        <v>62842.5</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1624,11 +1624,11 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>85260</v>
+        <v>63945</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1637,11 +1637,11 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>86730</v>
+        <v>65047.5</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,11 +1650,11 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>88200</v>
+        <v>66150</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86416" spans="2:2" x14ac:dyDescent="0.25">

--- a/trunk/Lab5/Envelope.xlsx
+++ b/trunk/Lab5/Envelope.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -290,181 +290,181 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>32</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>32</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>32</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>32</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>32</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>32</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>32</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>32</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>31</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>31</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>31</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>30</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>30</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>30</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>29</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>29</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>28</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>28</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>27</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>26</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>26</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>25</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,11 +479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68769408"/>
-        <c:axId val="48513024"/>
+        <c:axId val="78609024"/>
+        <c:axId val="78614912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68769408"/>
+        <c:axId val="78609024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -493,12 +493,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48513024"/>
+        <c:crossAx val="78614912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48513024"/>
+        <c:axId val="78614912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,7 +509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68769408"/>
+        <c:crossAx val="78609024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -856,7 +856,7 @@
   <dimension ref="A1:C88200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C8"/>
+      <selection activeCell="C1" sqref="C1:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>1102.5*A1</f>
+        <f>1470*A1</f>
         <v>0</v>
       </c>
       <c r="C1">
@@ -882,8 +882,8 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B61" si="0">1102.5*A2</f>
-        <v>1102.5</v>
+        <f t="shared" ref="B2:B61" si="0">1470*A2</f>
+        <v>1470</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C61" si="1">ROUND(-B2*(B2-88200)*2/121550625,0)</f>
@@ -896,11 +896,11 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>2205</v>
+        <v>2940</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -909,11 +909,11 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>3307.5</v>
+        <v>4410</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -922,11 +922,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>4410</v>
+        <v>5880</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,11 +935,11 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>5512.5</v>
+        <v>7350</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,11 +948,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>6615</v>
+        <v>8820</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -961,11 +961,11 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>7717.5</v>
+        <v>10290</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -974,11 +974,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>8820</v>
+        <v>11760</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,11 +987,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>9922.5</v>
+        <v>13230</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1000,11 +1000,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>11025</v>
+        <v>14700</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,11 +1013,11 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>12127.5</v>
+        <v>16170</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,11 +1026,11 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>13230</v>
+        <v>17640</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,11 +1039,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>14332.5</v>
+        <v>19110</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1052,11 +1052,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>15435</v>
+        <v>20580</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1065,11 +1065,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>16537.5</v>
+        <v>22050</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1078,11 +1078,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>17640</v>
+        <v>23520</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1091,11 +1091,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>18742.5</v>
+        <v>24990</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1104,11 +1104,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>19845</v>
+        <v>26460</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1117,11 +1117,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>20947.5</v>
+        <v>27930</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,11 +1130,11 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>22050</v>
+        <v>29400</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1143,11 +1143,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>23152.5</v>
+        <v>30870</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1156,11 +1156,11 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>24255</v>
+        <v>32340</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1169,11 +1169,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>25357.5</v>
+        <v>33810</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>26460</v>
+        <v>35280</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1195,11 +1195,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>27562.5</v>
+        <v>36750</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>28665</v>
+        <v>38220</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1221,11 +1221,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>29767.5</v>
+        <v>39690</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1234,11 +1234,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>30870</v>
+        <v>41160</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1247,11 +1247,11 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>31972.5</v>
+        <v>42630</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1260,11 +1260,11 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>33075</v>
+        <v>44100</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,11 +1273,11 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>34177.5</v>
+        <v>45570</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,11 +1286,11 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>35280</v>
+        <v>47040</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,11 +1299,11 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>36382.5</v>
+        <v>48510</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>37485</v>
+        <v>49980</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -1325,11 +1325,11 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>38587.5</v>
+        <v>51450</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1338,11 +1338,11 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>39690</v>
+        <v>52920</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1351,11 +1351,11 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>40792.5</v>
+        <v>54390</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,11 +1364,11 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>41895</v>
+        <v>55860</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,11 +1377,11 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>42997.5</v>
+        <v>57330</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,11 +1390,11 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>44100</v>
+        <v>58800</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1403,11 +1403,11 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>45202.5</v>
+        <v>60270</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1416,11 +1416,11 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>46305</v>
+        <v>61740</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,11 +1429,11 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>47407.5</v>
+        <v>63210</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,11 +1442,11 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>48510</v>
+        <v>64680</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1455,11 +1455,11 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>49612.5</v>
+        <v>66150</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>50715</v>
+        <v>67620</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1481,11 +1481,11 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>51817.5</v>
+        <v>69090</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1494,11 +1494,11 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>52920</v>
+        <v>70560</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1507,11 +1507,11 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>54022.5</v>
+        <v>72030</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1520,11 +1520,11 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>55125</v>
+        <v>73500</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,11 +1533,11 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>56227.5</v>
+        <v>74970</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1546,11 +1546,11 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>57330</v>
+        <v>76440</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1559,11 +1559,11 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>58432.5</v>
+        <v>77910</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1572,11 +1572,11 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>59535</v>
+        <v>79380</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1585,11 +1585,11 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>60637.5</v>
+        <v>80850</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1598,11 +1598,11 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>61740</v>
+        <v>82320</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1611,11 +1611,11 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>62842.5</v>
+        <v>83790</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1624,11 +1624,11 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>63945</v>
+        <v>85260</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1637,11 +1637,11 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>65047.5</v>
+        <v>86730</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,11 +1650,11 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>66150</v>
+        <v>88200</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86416" spans="2:2" x14ac:dyDescent="0.25">
